--- a/Облік обладнання.xlsx
+++ b/Облік обладнання.xlsx
@@ -80,7 +80,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>PC0918-001</t>
+    <t>PC-18D1F2</t>
   </si>
 </sst>
 </file>
@@ -177,18 +177,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I1048576"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="User_name" dataDxfId="10"/>
-    <tableColumn id="2" name=" PC_name" dataDxfId="9"/>
-    <tableColumn id="3" name="БП" dataDxfId="8"/>
-    <tableColumn id="4" name="Мать" dataDxfId="7"/>
-    <tableColumn id="5" name="Проц" dataDxfId="6"/>
-    <tableColumn id="6" name="ОЗУ" dataDxfId="5"/>
-    <tableColumn id="7" name="HDD" dataDxfId="4"/>
-    <tableColumn id="8" name="SSD" dataDxfId="3"/>
-    <tableColumn id="9" name="DWD-ROM" dataDxfId="2"/>
+    <tableColumn id="1" name="User_name" dataDxfId="8"/>
+    <tableColumn id="2" name=" PC_name" dataDxfId="7"/>
+    <tableColumn id="3" name="БП" dataDxfId="6"/>
+    <tableColumn id="4" name="Мать" dataDxfId="5"/>
+    <tableColumn id="5" name="Проц" dataDxfId="4"/>
+    <tableColumn id="6" name="ОЗУ" dataDxfId="3"/>
+    <tableColumn id="7" name="HDD" dataDxfId="2"/>
+    <tableColumn id="8" name="SSD" dataDxfId="1"/>
+    <tableColumn id="9" name="DWD-ROM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -460,7 +460,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
